--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
   <si>
     <t>土地坐落</t>
   </si>
@@ -263,7 +263,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>2013-11-12</t>
   </si>
 </sst>
 </file>
@@ -1454,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1479,13 +1491,22 @@
       <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1501,6 +1522,15 @@
       </c>
       <c r="G2" s="2">
         <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -263,6 +263,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-11-12</t>
@@ -1466,13 +1472,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1500,13 +1506,16 @@
       <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1524,12 +1533,15 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
         <v>607</v>
       </c>
     </row>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -266,6 +266,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -275,13 +278,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>加特福生物科技</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-12</t>
+  </si>
+  <si>
+    <t>tmp15ba1</t>
   </si>
 </sst>
 </file>
@@ -1472,13 +1487,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1509,13 +1524,22 @@
       <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1533,16 +1557,25 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
         <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,9 +18,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="90">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段07030000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段12650000地號</t>
+  </si>
+  <si>
+    <t>新北市&gt;夕止區福德段10730000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區昊天段11000000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區昊天段11650003地號</t>
+  </si>
+  <si>
+    <t>新北市丨夕止區昊天段11650003地號</t>
+  </si>
+  <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
+    <t>70000分之1182</t>
+  </si>
+  <si>
+    <t>100000分之245</t>
+  </si>
+  <si>
+    <t>李慶華</t>
+  </si>
+  <si>
+    <t>100年02月15曰</t>
+  </si>
+  <si>
+    <t>101年02月17曰</t>
+  </si>
+  <si>
+    <t>100年03月08日</t>
+  </si>
+  <si>
+    <t>100年03月08曰</t>
+  </si>
+  <si>
+    <t>101年12月25曰</t>
+  </si>
+  <si>
+    <t>101年12月25日</t>
+  </si>
+  <si>
+    <t>102年05月01曰</t>
+  </si>
+  <si>
+    <t>102年05</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>19050000(土地重測）</t>
+  </si>
+  <si>
+    <t>10000000(土地重測）</t>
+  </si>
+  <si>
+    <t>1200000(土地重測）</t>
+  </si>
+  <si>
+    <t>1200(土地重測）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-12</t>
+  </si>
+  <si>
+    <t>tmp15ba1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -29,7 +155,7 @@
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所_有權人</t>
+    <t>所有權人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -41,139 +167,40 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市汐止區金龍段0703-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段1265-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市&gt;夕止區福德段1073-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區昊天段1100-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區昊天段1165-0003 地號</t>
-  </si>
-  <si>
-    <t>新北市丨夕止區昊天段1165-0003 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段0703 - 0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之137</t>
-  </si>
-  <si>
-    <t>100000 分 之16</t>
-  </si>
-  <si>
-    <t>70000分之 1182</t>
-  </si>
-  <si>
-    <t>100000 分 之245</t>
-  </si>
-  <si>
-    <t>李慶華</t>
-  </si>
-  <si>
-    <t>100 年 02 月15曰</t>
-  </si>
-  <si>
-    <t>101 年 02 月17曰</t>
-  </si>
-  <si>
-    <t>100 年 03 月08日</t>
-  </si>
-  <si>
-    <t>100 年 03 月08曰</t>
-  </si>
-  <si>
-    <t>101 年 12 月25曰</t>
-  </si>
-  <si>
-    <t>101 年 12 月25日</t>
-  </si>
-  <si>
-    <t>102 年 05 月01曰</t>
-  </si>
-  <si>
-    <t>102 年 05</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>19，050，000( 土 地重測）</t>
-  </si>
-  <si>
-    <t>19，050，000(土 地重測）</t>
-  </si>
-  <si>
-    <t>19，050,000(土 地重測）</t>
-  </si>
-  <si>
-    <t>19,050，000(土 地重測）</t>
-  </si>
-  <si>
-    <t>10’000,000(土 地重測）</t>
-  </si>
-  <si>
-    <t>1，200’000(土 地重測）</t>
-  </si>
-  <si>
-    <t>1,200，_( 土 地重測）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段06871-000 建號</t>
-  </si>
-  <si>
-    <t>新北夕止區福德段09188-000 建號</t>
-  </si>
-  <si>
-    <t>新北rb—&gt;夕止區金龍段07464-000 建號</t>
-  </si>
-  <si>
-    <t>新北市〉夕止區昊天段01967-000 建號</t>
-  </si>
-  <si>
-    <t>新北市丨夕止區昊天段01735-000 建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段07464-000 建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段07465-000 建號</t>
+    <t>新北市汐止區金龍段06871000建號</t>
+  </si>
+  <si>
+    <t>新北夕止區福德段09188000建號</t>
+  </si>
+  <si>
+    <t>新北rb—&gt;夕止區金龍段07464000建號</t>
+  </si>
+  <si>
+    <t>新北市〉夕止區昊天段01967000建號</t>
+  </si>
+  <si>
+    <t>新北市丨夕止區昊天段01735000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段07464000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段07465000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 49</t>
-  </si>
-  <si>
-    <t>10000分之 58</t>
-  </si>
-  <si>
-    <t>101 年 12 月24日</t>
-  </si>
-  <si>
-    <t>101 年 12 月24曰</t>
-  </si>
-  <si>
-    <t>10，000,000(土 地重測）</t>
-  </si>
-  <si>
-    <t>1，200，000(土 地重測）</t>
-  </si>
-  <si>
-    <t>19,050,000(土 地重測）</t>
+    <t>10000分之49</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
+    <t>101年12月24日</t>
+  </si>
+  <si>
+    <t>101年12月24曰</t>
   </si>
   <si>
     <t>廠牌.型號</t>
@@ -185,16 +212,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>HONDA CR-V</t>
-  </si>
-  <si>
-    <t>SUBARU OUTBACK</t>
-  </si>
-  <si>
-    <t>102 年 02 月25曰</t>
-  </si>
-  <si>
-    <t>102 年 03 月12曰</t>
+    <t>HONDACRV</t>
+  </si>
+  <si>
+    <t>SUBARUOUTBACK</t>
+  </si>
+  <si>
+    <t>102年02月25曰</t>
+  </si>
+  <si>
+    <t>102年03月12曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -212,16 +239,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台新國際商業銀行汐止分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行南京東 路分行</t>
+    <t>台新國際商業銀行汐止分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行南京東路分行</t>
   </si>
   <si>
     <t>永豐商業銀行信義分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行復興分 行</t>
+    <t>台北富邦商業銀行復興分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -245,12 +272,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -263,40 +284,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>加特福生物科技</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-12</t>
-  </si>
-  <si>
-    <t>tmp15ba1</t>
   </si>
 </sst>
 </file>
@@ -655,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,343 +674,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1998.02</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1998.02</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>23802.66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>23802.66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>1592.76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1998.02</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>23802.66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>6674.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2">
         <v>11900000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>607</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>30.63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2">
         <v>11900000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>607</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>6674.07</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2">
         <v>12100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>607</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>30.63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H12" s="2">
         <v>12100000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>607</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>2012.26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2">
         <v>1100000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2">
+        <v>607</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>23654.55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H14" s="2">
         <v>1100000</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>607</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1037,25 +1322,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1063,25 +1348,25 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>276.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1089,25 +1374,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>97.21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1115,25 +1400,25 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>7533.95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1141,22 +1426,22 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>57.88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
         <v>11900000</v>
@@ -1167,22 +1452,22 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>57.83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
         <v>12100000</v>
@@ -1193,22 +1478,22 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>7533.95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
         <v>1100000</v>
@@ -1219,25 +1504,25 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>6357.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1255,22 +1540,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1278,19 +1563,19 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>1049000</v>
@@ -1301,19 +1586,19 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>2498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>1420000</v>
@@ -1334,22 +1619,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1357,16 +1642,16 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1378,16 +1663,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1399,16 +1684,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1420,16 +1705,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1441,16 +1726,16 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1462,16 +1747,16 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
@@ -1495,43 +1780,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1542,7 +1827,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>10000</v>
@@ -1551,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
@@ -1560,19 +1845,19 @@
         <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>607</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
         <v>75</v>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>新北市汐止區金龍段07030000地號</t>
   </si>
   <si>
@@ -80,12 +86,12 @@
     <t>新北市丨夕止區昊天段11650003地號</t>
   </si>
   <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
     <t>100000分之137</t>
   </si>
   <si>
-    <t>100000分之16</t>
-  </si>
-  <si>
     <t>70000分之1182</t>
   </si>
   <si>
@@ -146,30 +152,12 @@
     <t>tmp15ba1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市汐止區金龍段06871000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>新北夕止區福德段09188000建號</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>新北市汐止區金龍段07465000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>10000分之49</t>
   </si>
   <si>
@@ -203,45 +188,27 @@
     <t>101年12月24曰</t>
   </si>
   <si>
-    <t>廠牌.型號</t>
-  </si>
-  <si>
-    <t>汽缸.容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HONDACRV</t>
   </si>
   <si>
+    <t>102年02月25曰</t>
+  </si>
+  <si>
     <t>SUBARUOUTBACK</t>
   </si>
   <si>
-    <t>102年02月25曰</t>
-  </si>
-  <si>
     <t>102年03月12曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台新國際商業銀行汐止分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台新國際商業銀行南京東路分行</t>
   </si>
   <si>
@@ -257,18 +224,12 @@
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
     <t>外幣存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -279,15 +240,6 @@
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>加特福生物科技</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -646,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,616 +647,647 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1998.02</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>607</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3196832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23802.66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998.02</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>607</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00137</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>32.6096442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>23802.66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>607</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.8084256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1592.76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>23802.66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>607</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0168857142857143</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>26.8948902857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>1592.76</v>
+        <v>1998.02</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>607</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.3196832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23802.66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1998.02</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>607</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.8084256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6674.07</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11900000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>23802.66</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>607</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>16.3514715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="2">
-        <v>6674.07</v>
+        <v>30.63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2">
         <v>11900000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2">
         <v>607</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.0750435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6674.07</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12100000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30.63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2">
-        <v>11900000</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2">
         <v>607</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O10" s="2">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16.3514715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="2">
-        <v>6674.07</v>
+        <v>30.63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2">
         <v>12100000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2">
         <v>607</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.0750435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2012.26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30.63</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2">
-        <v>12100000</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2">
         <v>607</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.3219616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>2012.26</v>
+        <v>23654.55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2">
         <v>1100000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2">
         <v>607</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>23654.55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1100000</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="2">
-        <v>607</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="2">
-        <v>25</v>
+      <c r="P13" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.784728</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1322,207 +1305,181 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C1" s="1">
+        <v>276.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
-        <v>276.5</v>
+        <v>97.21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
-        <v>97.21</v>
+        <v>7533.95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>7533.95</v>
+        <v>57.88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11900000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>57.88</v>
+        <v>57.83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2">
-        <v>11900000</v>
+        <v>12100000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>57.83</v>
+        <v>7533.95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>12100000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
-        <v>7533.95</v>
+        <v>6357.48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6357.48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1540,67 +1497,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1049000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
-        <v>2354</v>
+        <v>2498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>1049000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2498</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2">
         <v>1420000</v>
       </c>
     </row>
@@ -1611,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1619,149 +1553,126 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>159435</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>159435</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>7157</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1099</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>306</v>
+        <v>3860771</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
       <c r="G6" s="2">
-        <v>3860771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>69</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2">
         <v>2951</v>
       </c>
     </row>
@@ -1772,13 +1683,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1817,50 +1728,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2">
-        <v>607</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -86,12 +86,12 @@
     <t>新北市丨夕止區昊天段11650003地號</t>
   </si>
   <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
     <t>100000分之16</t>
   </si>
   <si>
-    <t>100000分之137</t>
-  </si>
-  <si>
     <t>70000分之1182</t>
   </si>
   <si>
@@ -155,27 +155,27 @@
     <t>新北市汐止區金龍段06871000建號</t>
   </si>
   <si>
+    <t>新北夕止區福德段09188000建號</t>
+  </si>
+  <si>
+    <t>新北rb—&gt;夕止區金龍段07464000建號</t>
+  </si>
+  <si>
+    <t>新北市〉夕止區昊天段01967000建號</t>
+  </si>
+  <si>
+    <t>新北市丨夕止區昊天段01735000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段07464000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區金龍段07465000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>新北夕止區福德段09188000建號</t>
-  </si>
-  <si>
-    <t>新北rb—&gt;夕止區金龍段07464000建號</t>
-  </si>
-  <si>
-    <t>新北市〉夕止區昊天段01967000建號</t>
-  </si>
-  <si>
-    <t>新北市丨夕止區昊天段01735000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段07464000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區金龍段07465000建號</t>
-  </si>
-  <si>
     <t>10000分之49</t>
   </si>
   <si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +662,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -698,24 +704,24 @@
         <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.3196832</v>
+        <v>2.7372874</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>23802.66</v>
+        <v>1998.02</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -751,18 +757,18 @@
         <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00137</v>
+        <v>0.00016</v>
       </c>
       <c r="Q3" s="2">
-        <v>32.6096442</v>
+        <v>0.3196832</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -804,39 +810,39 @@
         <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q4" s="2">
-        <v>3.8084256</v>
+        <v>32.6096442</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="2">
-        <v>1592.76</v>
+        <v>23802.66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>40</v>
@@ -857,39 +863,39 @@
         <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0168857142857143</v>
+        <v>0.00016</v>
       </c>
       <c r="Q5" s="2">
-        <v>26.8948902857143</v>
+        <v>3.8084256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2">
-        <v>1998.02</v>
+        <v>1592.76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>40</v>
@@ -910,39 +916,39 @@
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00016</v>
+        <v>0.0168857142857143</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.3196832</v>
+        <v>26.8948902857143</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>23802.66</v>
+        <v>1998.02</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>40</v>
@@ -963,39 +969,39 @@
         <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.00016</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.8084256</v>
+        <v>0.3196832</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>6674.07</v>
+        <v>23802.66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2">
-        <v>11900000</v>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>40</v>
@@ -1016,24 +1022,24 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>0.00245</v>
+        <v>0.00016</v>
       </c>
       <c r="Q8" s="2">
-        <v>16.3514715</v>
+        <v>3.8084256</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>30.63</v>
+        <v>6674.07</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -1069,24 +1075,24 @@
         <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>0.00245</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.0750435</v>
+        <v>16.3514715</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>6674.07</v>
+        <v>30.63</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -1101,7 +1107,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="2">
-        <v>12100000</v>
+        <v>11900000</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
@@ -1122,24 +1128,24 @@
         <v>43</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>0.00245</v>
       </c>
       <c r="Q10" s="2">
-        <v>16.3514715</v>
+        <v>0.0750435</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>30.63</v>
+        <v>6674.07</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -1148,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>35</v>
@@ -1175,39 +1181,39 @@
         <v>43</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>0.00245</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.0750435</v>
+        <v>16.3514715</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>2012.26</v>
+        <v>30.63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="2">
-        <v>1100000</v>
+        <v>12100000</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>40</v>
@@ -1228,33 +1234,33 @@
         <v>43</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>0.00016</v>
+        <v>0.00245</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.3219616</v>
+        <v>0.0750435</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>23654.55</v>
+        <v>2012.26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>35</v>
@@ -1281,12 +1287,65 @@
         <v>43</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
         <v>0.00016</v>
       </c>
       <c r="Q13" s="2">
+        <v>0.3219616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>23654.55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>607</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q14" s="2">
         <v>3.784728</v>
       </c>
     </row>
@@ -1297,189 +1356,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>276.5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="2">
+        <v>97.21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>97.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7533.95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0049</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>36.916355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>57.88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11900000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>57.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>57.83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12100000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>57.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7533.95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0049</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>36.916355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6357.48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2">
-        <v>97.21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7533.95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2">
-        <v>57.88</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
-        <v>11900000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>57.83</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2">
-        <v>12100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7533.95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6357.48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
+      <c r="P8" s="2">
+        <v>0.0058</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>36.873384</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1517,24 +1818,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2354</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1049000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>2498</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2">
         <v>1420000</v>
       </c>
     </row>
@@ -1545,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1571,10 +1895,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>61</v>
@@ -1587,15 +1911,15 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>7157</v>
+        <v>159435</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>61</v>
@@ -1608,15 +1932,15 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1099</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
@@ -1629,18 +1953,18 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>306</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>62</v>
@@ -1650,29 +1974,50 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>3860771</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>3860771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>69</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>2951</v>
       </c>
     </row>
@@ -1683,13 +2028,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,6 +2073,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -188,13 +188,16 @@
     <t>101年12月24曰</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>HONDACRV</t>
   </si>
   <si>
+    <t>SUBARUOUTBACK</t>
+  </si>
+  <si>
     <t>102年02月25曰</t>
-  </si>
-  <si>
-    <t>SUBARUOUTBACK</t>
   </si>
   <si>
     <t>102年03月12曰</t>
@@ -1790,38 +1793,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1">
-        <v>2354</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1049000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1830,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -1838,8 +1862,29 @@
       <c r="G2" s="2">
         <v>1049000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -1853,13 +1898,34 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>1420000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1877,13 +1943,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1898,13 +1964,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1919,13 +1985,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1940,13 +2006,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1961,13 +2027,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1982,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -2003,13 +2069,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -2042,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2080,7 +2146,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2092,13 +2158,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -188,6 +188,9 @@
     <t>101年12月24曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
   </si>
   <si>
     <t>102年03月12曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台新國際商業銀行汐止分行</t>
@@ -1441,7 +1447,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1494,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1547,7 +1553,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>41</v>
@@ -1600,7 +1606,7 @@
         <v>11900000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>41</v>
@@ -1653,7 +1659,7 @@
         <v>12100000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
@@ -1706,7 +1712,7 @@
         <v>1100000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>41</v>
@@ -1759,7 +1765,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>41</v>
@@ -1804,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1845,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2354</v>
@@ -1854,7 +1860,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -1863,7 +1869,7 @@
         <v>1049000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1889,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>2498</v>
@@ -1898,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
@@ -1907,7 +1913,7 @@
         <v>1420000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -1943,13 +1949,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1964,13 +1970,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1985,13 +1991,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -2006,13 +2012,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -2027,13 +2033,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -2048,13 +2054,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -2069,13 +2075,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -2108,13 +2114,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2146,7 +2152,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2158,13 +2164,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -209,46 +209,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台新國際商業銀行汐止分行</t>
   </si>
   <si>
+    <t>台新國際商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行復興分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台新國際商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行復興分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>加特福生物科技</t>
@@ -1941,13 +1950,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1958,139 +1967,277 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>159435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>159435</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>607</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>159435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7157</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>607</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>7157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1099</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>607</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>607</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>3860771</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>607</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2">
         <v>2951</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>607</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2114,13 +2261,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2152,7 +2299,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2164,13 +2311,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>

--- a/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
+++ b/legislator/property/output/normal/李慶華_2013-11-12_財產申報表_tmp15ba1.xlsx
@@ -12,13 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -264,6 +265,39 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>房屋貸款(車位）</t>
+  </si>
+  <si>
+    <t>新北市中和區中山路二段253號</t>
+  </si>
+  <si>
+    <t>台灣銀行中和分行新北市中和區中山路二段253號</t>
+  </si>
+  <si>
+    <t>100年02月17日</t>
+  </si>
+  <si>
+    <t>100年04月14日</t>
+  </si>
+  <si>
+    <t>101年02月22日</t>
+  </si>
+  <si>
+    <t>101年12月28日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2341,4 +2375,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>607</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7111539</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
+        <v>607</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6993998</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2">
+        <v>607</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>